--- a/biology/Médecine/Pathologie_expérimentale/Pathologie_expérimentale.xlsx
+++ b/biology/Médecine/Pathologie_expérimentale/Pathologie_expérimentale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pathologie_exp%C3%A9rimentale</t>
+          <t>Pathologie_expérimentale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pathologie expérimentale est la branche de la pathologie qui étudie la maladie et les phénomènes morbides, provoqués artificiellement chez l'animal. C'est donc un domaine scientifique couvrant à la fois la pathologie humaine et la pathologie animale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pathologie_exp%C3%A9rimentale</t>
+          <t>Pathologie_expérimentale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Historiquement, outre Claude Bernard[1], qui a laissé des Leçons de pathologie expérimentale[2], se sont illustrés notamment dans ce domaine : Germain Sée, Frédéric Dubois d'Amiens, Camillo Golgi, Robert Koch[3], Ludwig Traube et Alfred Vulpian ; parmi les contemporains, Florian Delbarre et Esther Orozco.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historiquement, outre Claude Bernard, qui a laissé des Leçons de pathologie expérimentale, se sont illustrés notamment dans ce domaine : Germain Sée, Frédéric Dubois d'Amiens, Camillo Golgi, Robert Koch, Ludwig Traube et Alfred Vulpian ; parmi les contemporains, Florian Delbarre et Esther Orozco.
 </t>
         </is>
       </c>
